--- a/Guidelines.xlsx
+++ b/Guidelines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\GitHub\DYNAMO-Electronic_Fursuit-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCDE3E-90D8-4287-9566-08BC4A1B4AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB822F-BA86-44B2-A1A9-1DA46824346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Lack of organization and subdivision into smaller projects: everything was thought and rethought, implemented and reimplemented multiple times. Also there were no concrete milestones set</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Controller needs to receive 4g connection and it must be configured at every run</t>
+  </si>
+  <si>
+    <t>CSI cable is not appropriate for descending from head to central system</t>
   </si>
 </sst>
 </file>
@@ -729,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAFDCE2-4AB0-466D-AF0D-8122B52C111D}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,35 +787,40 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Guidelines.xlsx
+++ b/Guidelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\GitHub\DYNAMO-Electronic_Fursuit-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB822F-BA86-44B2-A1A9-1DA46824346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6F90F6-A05A-4E0E-8E94-F8A70975FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Goals and guidelines" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Lack of organization and subdivision into smaller projects: everything was thought and rethought, implemented and reimplemented multiple times. Also there were no concrete milestones set</t>
   </si>
@@ -184,9 +184,6 @@
     <t>LED system around entire body and on gear patterns as opposed to on the lab coat</t>
   </si>
   <si>
-    <t>Fully animatronic head (lip, nose, ears, mouth, tongue, facial features)</t>
-  </si>
-  <si>
     <t>Larger displays (5-inch)</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>LEDs react to tablet display (ambient lighting)</t>
   </si>
   <si>
-    <t>Localhost stream of frontal camera feed</t>
-  </si>
-  <si>
     <t>Digital animated badge</t>
   </si>
   <si>
@@ -253,20 +247,41 @@
     <t>Phone, backpack and lab coat all separate from the suit itself. Would be a lot easier if it was all integrated in a single wearable unit</t>
   </si>
   <si>
-    <t>No easy way of charging the batteries, must open the backpack, remove them and connect one by one and it's clunky</t>
-  </si>
-  <si>
     <t>Controller needs to receive 4g connection and it must be configured at every run</t>
   </si>
   <si>
     <t>CSI cable is not appropriate for descending from head to central system</t>
+  </si>
+  <si>
+    <t>No easy way of charging the batteries since backpack opening is only at the top</t>
+  </si>
+  <si>
+    <t>Animated chest gears</t>
+  </si>
+  <si>
+    <t>Command receipts</t>
+  </si>
+  <si>
+    <t>Debug screens</t>
+  </si>
+  <si>
+    <t>Music playback UI</t>
+  </si>
+  <si>
+    <t>Video recording</t>
+  </si>
+  <si>
+    <t>Assistant captions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully animatronic head </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +293,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -312,6 +335,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -639,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43516AA1-7588-4A92-A5EB-833CE3700ABC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -649,7 +673,7 @@
   <cols>
     <col min="1" max="1" width="110.6640625" customWidth="1"/>
     <col min="2" max="2" width="67.5546875" customWidth="1"/>
-    <col min="3" max="3" width="98.5546875" customWidth="1"/>
+    <col min="3" max="3" width="143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -722,10 +746,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -734,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAFDCE2-4AB0-466D-AF0D-8122B52C111D}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,17 +806,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -834,7 +862,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD99FA3-A23A-4B2E-9D55-E5541FCBC510}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,12 +980,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -967,104 +995,126 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDE75F5-8CCC-4647-9142-14FFFCA1C9A3}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1089,17 +1139,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Guidelines.xlsx
+++ b/Guidelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\GitHub\DYNAMO-Electronic_Fursuit-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6F90F6-A05A-4E0E-8E94-F8A70975FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA5579F-8F8D-4518-939B-C7FABAEAEE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Lack of organization and subdivision into smaller projects: everything was thought and rethought, implemented and reimplemented multiple times. Also there were no concrete milestones set</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fully animatronic head </t>
+  </si>
+  <si>
+    <t>Cables were connected directly to components since there was no central PCB, user had to deal with cable mess and disconnecting/reconnecting peripherals was a terrible experience</t>
   </si>
 </sst>
 </file>
@@ -760,10 +763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAFDCE2-4AB0-466D-AF0D-8122B52C111D}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,49 +809,54 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -925,12 +933,12 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.109375" customWidth="1"/>
+    <col min="1" max="1" width="64.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">

--- a/Guidelines.xlsx
+++ b/Guidelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\GitHub\DYNAMO-Electronic_Fursuit-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA5579F-8F8D-4518-939B-C7FABAEAEE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E3E774-F49C-4DE8-B080-FA02D962370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Goals and guidelines" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Lack of organization and subdivision into smaller projects: everything was thought and rethought, implemented and reimplemented multiple times. Also there were no concrete milestones set</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Raspberry pi being unreliable (SD card corruptions, freezes, kernel changes)</t>
   </si>
   <si>
-    <t>No fan or any form of thermal control</t>
-  </si>
-  <si>
     <t>HDMI Displays for eyes with custom renderer</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>Larger displays (5-inch)</t>
   </si>
   <si>
-    <t>Windows 10</t>
-  </si>
-  <si>
     <t>Voicemod Control API instead of SoX (or SVC https://github.com/w-okada/voice-changer/blob/master/README_en.md https://www.voicex.world/)</t>
   </si>
   <si>
@@ -199,27 +193,15 @@
     <t>Better emotion recognition model</t>
   </si>
   <si>
-    <t>Refine eye tracking algorithm</t>
-  </si>
-  <si>
     <t>Microexpression mapping for animatronic movement</t>
   </si>
   <si>
     <t>Custom app for chest tablet (image, audio and information stream)</t>
   </si>
   <si>
-    <t>Image input for assistant AI</t>
-  </si>
-  <si>
-    <t>ability to record and snapshot</t>
-  </si>
-  <si>
     <t>STT for realtime caption display</t>
   </si>
   <si>
-    <t>realistic TTS voice engine</t>
-  </si>
-  <si>
     <t>LEDs as fourier audio reactors (https://github.com/naztronaut/dancyPi-audio-reactive-led/tree/master)</t>
   </si>
   <si>
@@ -244,9 +226,6 @@
     <t>Large, SUPER MOTION tail</t>
   </si>
   <si>
-    <t>Phone, backpack and lab coat all separate from the suit itself. Would be a lot easier if it was all integrated in a single wearable unit</t>
-  </si>
-  <si>
     <t>Controller needs to receive 4g connection and it must be configured at every run</t>
   </si>
   <si>
@@ -278,6 +257,24 @@
   </si>
   <si>
     <t>Cables were connected directly to components since there was no central PCB, user had to deal with cable mess and disconnecting/reconnecting peripherals was a terrible experience</t>
+  </si>
+  <si>
+    <t>Significant thermal stress, like with most full-body fursuits</t>
+  </si>
+  <si>
+    <t>Significant lack of vision, like with most fursuit heads</t>
+  </si>
+  <si>
+    <t>Phone, backpack and LEDs separate from the suit itself. Would be a lot easier if it was all integrated in a single wearable unit</t>
+  </si>
+  <si>
+    <t>x86 architeture running Windows 10, instead of ARM</t>
+  </si>
+  <si>
+    <t>Refined eye tracking algorithm</t>
+  </si>
+  <si>
+    <t>Better and faster TTS voice</t>
   </si>
 </sst>
 </file>
@@ -681,72 +678,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -763,10 +760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAFDCE2-4AB0-466D-AF0D-8122B52C111D}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,27 +801,27 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -856,8 +853,16 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +875,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,47 +885,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -932,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD99FA3-A23A-4B2E-9D55-E5541FCBC510}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,57 +948,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1003,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDE75F5-8CCC-4647-9142-14FFFCA1C9A3}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,117 +1021,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
+      <c r="A10" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>63</v>
+      <c r="A15" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://github.com/naztronaut/dancyPi-audio-reactive-led/tree/master" xr:uid="{FB187482-DDF2-4CCF-954E-447BFBFD2DD4}"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://github.com/naztronaut/dancyPi-audio-reactive-led/tree/master" xr:uid="{FB187482-DDF2-4CCF-954E-447BFBFD2DD4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1137,7 +1132,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,17 +1142,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Guidelines.xlsx
+++ b/Guidelines.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\GitHub\DYNAMO-Electronic_Fursuit-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E3E774-F49C-4DE8-B080-FA02D962370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A0B368-3598-46CD-9F9C-CB85916D842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Goals and guidelines" sheetId="3" r:id="rId1"/>
     <sheet name="Problems of BOSS" sheetId="1" r:id="rId2"/>
-    <sheet name="Maintained innovations" sheetId="2" r:id="rId3"/>
+    <sheet name="Maintained features" sheetId="2" r:id="rId3"/>
     <sheet name="Hardware changes" sheetId="4" r:id="rId4"/>
     <sheet name="Software changes" sheetId="5" r:id="rId5"/>
     <sheet name="Other changes" sheetId="6" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Lack of organization and subdivision into smaller projects: everything was thought and rethought, implemented and reimplemented multiple times. Also there were no concrete milestones set</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Raspberry pi being unreliable (SD card corruptions, freezes, kernel changes)</t>
   </si>
   <si>
-    <t>HDMI Displays for eyes with custom renderer</t>
-  </si>
-  <si>
     <t>Moving eyebrows</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>AI Assistant with "Cookiebot" wake word</t>
   </si>
   <si>
-    <t>1D LED system</t>
-  </si>
-  <si>
     <t>Realtime voice changer as separate process</t>
   </si>
   <si>
@@ -163,69 +157,24 @@
     <t>SIM card inserted directly on the main board</t>
   </si>
   <si>
-    <t>CSI camera changed to USB camera</t>
-  </si>
-  <si>
     <t>Headset changed to just microphone</t>
   </si>
   <si>
-    <t>Power distribution board with easy access port for charging, main PCB</t>
-  </si>
-  <si>
-    <t>Chest Tablet</t>
-  </si>
-  <si>
     <t>Exoskeleton with digitigrade stilts (for both anatomy and better fixation of components and easier wearing, modify stilts according to CAD)</t>
   </si>
   <si>
-    <t>LED system around entire body and on gear patterns as opposed to on the lab coat</t>
-  </si>
-  <si>
     <t>Larger displays (5-inch)</t>
   </si>
   <si>
     <t>Voicemod Control API instead of SoX (or SVC https://github.com/w-okada/voice-changer/blob/master/README_en.md https://www.voicex.world/)</t>
   </si>
   <si>
-    <t>Higher display resolution with new eye renderer</t>
-  </si>
-  <si>
-    <t>Better emotion recognition model</t>
-  </si>
-  <si>
-    <t>Microexpression mapping for animatronic movement</t>
-  </si>
-  <si>
-    <t>Custom app for chest tablet (image, audio and information stream)</t>
-  </si>
-  <si>
-    <t>STT for realtime caption display</t>
-  </si>
-  <si>
-    <t>LEDs as fourier audio reactors (https://github.com/naztronaut/dancyPi-audio-reactive-led/tree/master)</t>
-  </si>
-  <si>
-    <t>LEDs react to tablet display (ambient lighting)</t>
-  </si>
-  <si>
-    <t>Digital animated badge</t>
-  </si>
-  <si>
-    <t>QR code for accessing control bot</t>
-  </si>
-  <si>
-    <t>TABLET APP FEATURES:</t>
-  </si>
-  <si>
     <t>All luxury shag fur (as opposed to just purple)</t>
   </si>
   <si>
     <t>New, more "evil" styled head base with better teeth</t>
   </si>
   <si>
-    <t>Large, SUPER MOTION tail</t>
-  </si>
-  <si>
     <t>Controller needs to receive 4g connection and it must be configured at every run</t>
   </si>
   <si>
@@ -235,24 +184,6 @@
     <t>No easy way of charging the batteries since backpack opening is only at the top</t>
   </si>
   <si>
-    <t>Animated chest gears</t>
-  </si>
-  <si>
-    <t>Command receipts</t>
-  </si>
-  <si>
-    <t>Debug screens</t>
-  </si>
-  <si>
-    <t>Music playback UI</t>
-  </si>
-  <si>
-    <t>Video recording</t>
-  </si>
-  <si>
-    <t>Assistant captions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fully animatronic head </t>
   </si>
   <si>
@@ -265,34 +196,59 @@
     <t>Significant lack of vision, like with most fursuit heads</t>
   </si>
   <si>
-    <t>Phone, backpack and LEDs separate from the suit itself. Would be a lot easier if it was all integrated in a single wearable unit</t>
-  </si>
-  <si>
-    <t>x86 architeture running Windows 10, instead of ARM</t>
-  </si>
-  <si>
     <t>Refined eye tracking algorithm</t>
   </si>
   <si>
-    <t>Better and faster TTS voice</t>
+    <t>Phone and backpack separate from the suit itself. Would be a lot easier if it was all integrated in a single wearable unit</t>
+  </si>
+  <si>
+    <t>LED system around entire body and on gear patterns</t>
+  </si>
+  <si>
+    <t>Fourier audio signal processing for LEDs</t>
+  </si>
+  <si>
+    <t>Realtime emotion recognition model</t>
+  </si>
+  <si>
+    <t>HDMI Displays for eyes</t>
+  </si>
+  <si>
+    <t>Power distribution board with easy access port for charging, custom PCB with custom enclosure</t>
+  </si>
+  <si>
+    <t>New speaker with better specs for voice amplification</t>
+  </si>
+  <si>
+    <t>New and improved camera system using USB</t>
+  </si>
+  <si>
+    <t>Cooling system</t>
+  </si>
+  <si>
+    <t>x86 architeture running Windows 10, instead of ARM Debian Linux</t>
+  </si>
+  <si>
+    <t>Better and faster TTS/Assistant voice</t>
+  </si>
+  <si>
+    <t>FreeRTOS for paralelization of low-level software</t>
+  </si>
+  <si>
+    <t>Articulated tail system using servos and IMU</t>
+  </si>
+  <si>
+    <t>Higher display resolution with new eye renderer using Unity, resulting in better animations with physics and smooth transitions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,22 +279,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,76 +629,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -763,7 +714,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,27 +752,27 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -857,12 +808,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1A247A-808E-4ABF-973C-2AD50E448F65}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,47 +836,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -935,70 +881,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD99FA3-A23A-4B2E-9D55-E5541FCBC510}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.109375" customWidth="1"/>
+    <col min="1" max="1" width="116.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1008,121 +964,82 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDE75F5-8CCC-4647-9142-14FFFCA1C9A3}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.21875" customWidth="1"/>
+    <col min="1" max="1" width="131.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="https://github.com/naztronaut/dancyPi-audio-reactive-led/tree/master" xr:uid="{FB187482-DDF2-4CCF-954E-447BFBFD2DD4}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1132,7 +1049,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,18 +1059,16 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
